--- a/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
+++ b/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2027340482069984/바탕 화면/DEV/webpage_office/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84D380E-8E99-4B2C-A4C3-EA2BC0579089}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC843A99-0E39-4546-B5BB-C73FC3DB40CA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11490" yWindow="1005" windowWidth="14940" windowHeight="13905" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>기본정보</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -65,87 +65,6 @@
   <si>
     <t>증상발현시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6일잡곡밥</t>
-  </si>
-  <si>
-    <t>6일들깨갓국</t>
-  </si>
-  <si>
-    <t>6일짜장불고기</t>
-  </si>
-  <si>
-    <t>6일실곤약초무침</t>
-  </si>
-  <si>
-    <t>6일콩나물무침</t>
-  </si>
-  <si>
-    <t>6일알새우칩</t>
-  </si>
-  <si>
-    <t>6일배추김치</t>
-  </si>
-  <si>
-    <t>7일잡곡밥</t>
-  </si>
-  <si>
-    <t>7일육개장</t>
-  </si>
-  <si>
-    <t>7일너겟샐러드</t>
-  </si>
-  <si>
-    <t>7일두부조림</t>
-  </si>
-  <si>
-    <t>7일마늘쫑무침</t>
-  </si>
-  <si>
-    <t>7일단호박죽</t>
-  </si>
-  <si>
-    <t>7일배추김치</t>
-  </si>
-  <si>
-    <t>8일잡곡밥</t>
-  </si>
-  <si>
-    <t>8일소고기미역국</t>
-  </si>
-  <si>
-    <t>8일코다리강정</t>
-  </si>
-  <si>
-    <t>8일간장어묵볶음</t>
-  </si>
-  <si>
-    <t>8일부추겉절이</t>
-  </si>
-  <si>
-    <t>8일식빵</t>
-  </si>
-  <si>
-    <t>8일배추김치</t>
-  </si>
-  <si>
-    <t>6일물급식실</t>
-  </si>
-  <si>
-    <t>6일물중앙계단</t>
-  </si>
-  <si>
-    <t>7일물급식실</t>
-  </si>
-  <si>
-    <t>7일물중앙계단</t>
-  </si>
-  <si>
-    <t>8일물급식실</t>
-  </si>
-  <si>
-    <t>8일물중앙계단</t>
   </si>
   <si>
     <t>의심원 노출시간</t>
@@ -1023,27 +942,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HT2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="10" customWidth="1"/>
     <col min="4" max="10" width="9" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="10" customWidth="1"/>
     <col min="12" max="30" width="9" style="4" customWidth="1"/>
-    <col min="31" max="31" width="28.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.8984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="10" customWidth="1"/>
     <col min="34" max="227" width="9" style="4" customWidth="1"/>
     <col min="228" max="228" width="9" style="18" customWidth="1"/>
     <col min="229" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:228" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:228" s="19" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1206,7 @@
       <c r="HS1" s="31"/>
       <c r="HT1" s="32"/>
     </row>
-    <row r="2" spans="1:228" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:228" s="19" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="36"/>
       <c r="C2" s="8"/>
@@ -1319,92 +1238,38 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="23" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>

--- a/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
+++ b/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29024"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2027340482069984/바탕 화면/DEV/webpage_office/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC843A99-0E39-4546-B5BB-C73FC3DB40CA}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BA5A9D-4A54-453E-84DB-E55883545FD3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">yyyy-mm-dd hh:mm </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>식단 (섭취 O - 1, 섭취 X - 0)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -69,6 +65,10 @@
   <si>
     <t>의심원 노출시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yyyy/mm/dd OR yyyy-mm-dd hh:mm </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -942,32 +942,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HT2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="10" customWidth="1"/>
     <col min="4" max="10" width="9" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="10" customWidth="1"/>
     <col min="12" max="30" width="9" style="4" customWidth="1"/>
-    <col min="31" max="31" width="28.8984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.875" style="28" customWidth="1"/>
+    <col min="32" max="32" width="39.5" style="10" customWidth="1"/>
     <col min="33" max="33" width="9" style="10" customWidth="1"/>
     <col min="34" max="227" width="9" style="4" customWidth="1"/>
     <col min="228" max="228" width="9" style="18" customWidth="1"/>
     <col min="229" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:228" s="19" customFormat="1" ht="24.9" customHeight="1">
+    <row r="1" spans="1:228" s="19" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>0</v>
@@ -1002,13 +1002,13 @@
       <c r="AC1" s="30"/>
       <c r="AD1" s="30"/>
       <c r="AE1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="31" t="s">
         <v>2</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="31" t="s">
-        <v>3</v>
       </c>
       <c r="AH1" s="31"/>
       <c r="AI1" s="31"/>
@@ -1206,7 +1206,7 @@
       <c r="HS1" s="31"/>
       <c r="HT1" s="32"/>
     </row>
-    <row r="2" spans="1:228" s="19" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:228" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="36"/>
       <c r="C2" s="8"/>
@@ -1238,10 +1238,10 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="16"/>
       <c r="AH2" s="3"/>
@@ -16257,10 +16257,28 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AF1956" xr:uid="{D8EF528C-A4BC-46A8-8F03-9B041230A50E}"/>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="K3:P102" xr:uid="{DA1E8345-58AF-42C8-BB59-C74E4A5ECF6B}">
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE1956 AE1 AF1 AF3:AF1956" xr:uid="{D8EF528C-A4BC-46A8-8F03-9B041230A50E}"/>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B2002 K3:AD2002 AG3:HT2002" xr:uid="{DA1E8345-58AF-42C8-BB59-C74E4A5ECF6B}">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2" xr:uid="{888C8A63-E89B-4004-985E-73F39F22C907}">
+      <formula1>"""연번"""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:J1" xr:uid="{644C5148-8D4E-47EB-95D8-826EBFB04438}">
+      <formula1>"""기본정보"""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:AD1" xr:uid="{FC98BED6-0BE3-4E39-9BD5-511A56FCF2B1}">
+      <formula1>"""임상증상 (증상 O - 1, 증상 X - 0)"""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AE2" xr:uid="{0F5A923D-A549-4A91-9515-CE83EFBBB348}">
+      <formula1>"""의심원 노출시간"""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AF2" xr:uid="{E29A056D-F180-4447-9C34-C003BF0B2CDD}">
+      <formula1>"""증상발현시간"""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1:HT1" xr:uid="{92B7578C-D4B3-4CD7-A4E5-46488C0AA60A}">
+      <formula1>"""식단 (섭취 O - 1, 섭취 X - 0)"""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
+++ b/public/Easy-Epidemiology_Individual_Exposure_Time_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2027340482069984/바탕 화면/DEV/webpage_office/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BA5A9D-4A54-453E-84DB-E55883545FD3}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{2C6A61ED-4663-49CE-9AF4-440E63B41B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A30C26F4-2F50-4D54-8855-F6057C816E4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
+    <workbookView xWindow="780" yWindow="615" windowWidth="23565" windowHeight="15585" xr2:uid="{DE00E6DD-76EB-42EA-94A8-3481291D9ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,6 +622,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -942,8 +946,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HT2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16257,16 +16261,13 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE1956 AE1 AF1 AF3:AF1956" xr:uid="{D8EF528C-A4BC-46A8-8F03-9B041230A50E}"/>
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B2002 K3:AD2002 AG3:HT2002" xr:uid="{DA1E8345-58AF-42C8-BB59-C74E4A5ECF6B}">
       <formula1>"0,1"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2" xr:uid="{888C8A63-E89B-4004-985E-73F39F22C907}">
       <formula1>"""연번"""</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:J1" xr:uid="{644C5148-8D4E-47EB-95D8-826EBFB04438}">
-      <formula1>"""기본정보"""</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:AD1" xr:uid="{FC98BED6-0BE3-4E39-9BD5-511A56FCF2B1}">
       <formula1>"""임상증상 (증상 O - 1, 증상 X - 0)"""</formula1>
